--- a/spec.xlsx
+++ b/spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pogoda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FEF50E-1195-4C85-AE1B-45E341B6768F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D9D351-4801-4477-9C27-2ECE6222C08C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E07F994-5DFD-4FAF-8750-2AC90B2EFCE8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Ширина</t>
   </si>
@@ -113,12 +113,6 @@
     <t>Производительность</t>
   </si>
   <si>
-    <t>котелэлектро</t>
-  </si>
-  <si>
-    <t>колонки</t>
-  </si>
-  <si>
     <t>Подводка</t>
   </si>
   <si>
@@ -132,6 +126,21 @@
   </si>
   <si>
     <t>Защита от замерзания</t>
+  </si>
+  <si>
+    <t>Материал покрытия</t>
+  </si>
+  <si>
+    <t>Диаметр</t>
+  </si>
+  <si>
+    <t>Термометр</t>
+  </si>
+  <si>
+    <t>Объём</t>
+  </si>
+  <si>
+    <t>Время нагрева воды</t>
   </si>
 </sst>
 </file>
@@ -495,15 +504,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29012D46-5960-433F-9B46-755885BB5284}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -587,82 +596,82 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -675,6 +684,21 @@
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/spec.xlsx
+++ b/spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pogoda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D9D351-4801-4477-9C27-2ECE6222C08C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B9AF28-DB84-455A-B834-778452BF0B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E07F994-5DFD-4FAF-8750-2AC90B2EFCE8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>Ширина</t>
   </si>
@@ -141,6 +141,75 @@
   </si>
   <si>
     <t>Время нагрева воды</t>
+  </si>
+  <si>
+    <t>Термостат</t>
+  </si>
+  <si>
+    <t>Межосевое расстояние</t>
+  </si>
+  <si>
+    <t>Материал</t>
+  </si>
+  <si>
+    <t>Глубина секции</t>
+  </si>
+  <si>
+    <t>Количество секций</t>
+  </si>
+  <si>
+    <t>Количество скоростей</t>
+  </si>
+  <si>
+    <t>Конструкция</t>
+  </si>
+  <si>
+    <t>Максимальный напор</t>
+  </si>
+  <si>
+    <t>Монтажная длина</t>
+  </si>
+  <si>
+    <t>Потребляемая мощность</t>
+  </si>
+  <si>
+    <t>Принцип действия</t>
+  </si>
+  <si>
+    <t>Тип ротора</t>
+  </si>
+  <si>
+    <t>Назначение</t>
+  </si>
+  <si>
+    <t>Тип счетчика</t>
+  </si>
+  <si>
+    <t>Номинальный расход</t>
+  </si>
+  <si>
+    <t>Максимальный расход воды</t>
+  </si>
+  <si>
+    <t>Межпроверочный интервал</t>
+  </si>
+  <si>
+    <t>Максимальный расход</t>
+  </si>
+  <si>
+    <t>Минимальный расход</t>
+  </si>
+  <si>
+    <t>Термокорректор</t>
+  </si>
+  <si>
+    <t>Тип подключения</t>
+  </si>
+  <si>
+    <t>Типоразмер счетчика газа</t>
+  </si>
+  <si>
+    <t>Предназначение</t>
   </si>
 </sst>
 </file>
@@ -183,7 +252,157 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -504,174 +723,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29012D46-5960-433F-9B46-755885BB5284}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -701,9 +969,194 @@
         <v>36</v>
       </c>
     </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:XFD1048576 B20:C20 A21:C1048576 A1:C19">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A44:B44 D1:XFD1048576 B20:C20 A21:C27 A33:C38 A31:B32 A61:C64 A67:C67 A77:C1048576 B65:C66 A1:C1 A13:C19 B39:C40 B41:B43 A2:B12 B47:C60 B45:B46 A71:A76 A30:C30 A28:B29 B68:C76">
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:B44 A1:XFD1 A13:XFD27 A33:XFD38 A31:B32 D31:XFD32 A61:XFD64 A67:XFD67 A77:XFD1048576 B65:XFD66 B39:XFD40 B41:B43 A2:B12 D2:XFD12 B47:XFD60 B45:B46 D41:XFD46 A71:A76 A30:XFD30 A28:B29 D28:XFD29 B68:XFD76">
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A37">
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 A44:B44 A13:XFD27 A33:XFD39 A31:B32 D31:XFD32 A61:XFD64 A67:XFD67 A77:XFD1048576 B65:XFD66 B40:XFD40 B41:B43 A2:B12 D2:XFD12 B47:XFD60 B45:B46 D41:XFD46 A71:A76 A30:XFD30 A28:B29 D28:XFD29 B68:XFD76">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD2 A13:XFD27 A33:XFD40 A41:B41 A31:B32 D31:XFD32 A61:XFD64 A67:XFD67 A77:XFD1048576 B65:XFD66 A44:B44 B42:B43 A3:B12 D3:XFD12 B47:XFD60 B45:B46 D41:XFD46 A71:A76 A30:XFD30 A28:B29 D28:XFD29 B68:XFD76">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A60">
+    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
